--- a/GlobalHandlerMailConfig.xlsx
+++ b/GlobalHandlerMailConfig.xlsx
@@ -3,21 +3,22 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C935F9-D452-4B43-BEAC-0B66CBDC162A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B4D09DB-CDD6-4CC6-97AF-EB4DCDD1662D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="12852" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="エラーメール通知" sheetId="8" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="dt_MailConfig">エラーメール通知!$A$5:$B$7</definedName>
-    <definedName name="dt_MailTemplate">エラーメール通知!$A$13:$B$16</definedName>
-    <definedName name="メールCc">エラーメール通知!$B$14</definedName>
-    <definedName name="メールTo">エラーメール通知!$B$13</definedName>
-    <definedName name="メール件名">エラーメール通知!$B$15</definedName>
+    <definedName name="dt_MailTemplate">エラーメール通知!$A$14:$B$17</definedName>
+    <definedName name="RPAプロジェクト名">エラーメール通知!$B$11</definedName>
+    <definedName name="メールCc">エラーメール通知!$B$15</definedName>
+    <definedName name="メールTo">エラーメール通知!$B$14</definedName>
+    <definedName name="メール件名">エラーメール通知!$B$16</definedName>
     <definedName name="メール送信方法">エラーメール通知!$B$5</definedName>
-    <definedName name="メール本文">エラーメール通知!$B$16</definedName>
+    <definedName name="メール本文">エラーメール通知!$B$17</definedName>
     <definedName name="リトライ回数">エラーメール通知!$B$6</definedName>
     <definedName name="リトライ待機時間">エラーメール通知!$B$7</definedName>
   </definedNames>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>To</t>
   </si>
@@ -207,12 +208,98 @@
   <si>
     <t>添付しない</t>
   </si>
+  <si>
+    <t>RPAプロジェクト名</t>
+    <rPh sb="9" eb="10">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>別フォルダを作成したい場合はフルパスを指定可能です。</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>スクリーンショットの添付の有無を選べます。</t>
+    <rPh sb="10" eb="12">
+      <t>テンプ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ウム</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>エラ</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>テスト実行時などに下書き保存を選択できます。</t>
+    <rPh sb="3" eb="6">
+      <t>ジッコウジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シタガ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>リトライ後に待機する時間をする指定できます。</t>
+    <rPh sb="4" eb="5">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>タイキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>UpdateGlobalHandlerToMailの実行時に自動的にプロジェクト名から採番されます。</t>
+    <rPh sb="26" eb="29">
+      <t>ジッコウジ</t>
+    </rPh>
+    <rPh sb="30" eb="33">
+      <t>ジドウテキ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>サイバン</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>サンプル名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="8">
+  <numFmts count="9">
     <numFmt numFmtId="42" formatCode="_ &quot;¥&quot;* #,##0_ ;_ &quot;¥&quot;* \-#,##0_ ;_ &quot;¥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
@@ -221,8 +308,9 @@
     <numFmt numFmtId="178" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="179" formatCode="yyyy;@"/>
     <numFmt numFmtId="180" formatCode="dd\-mmm"/>
+    <numFmt numFmtId="181" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -350,6 +438,13 @@
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -397,7 +492,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -587,6 +682,35 @@
       </top>
       <bottom style="medium">
         <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -661,41 +785,37 @@
     <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="181" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -705,9 +825,32 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="Bottom Border" xfId="20" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
@@ -1194,10 +1337,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAA2331-5AE1-495B-8AE2-F88678C79F24}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1221,125 +1364,159 @@
     </row>
     <row r="3" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="4" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="19"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="15" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>12</v>
       </c>
+      <c r="C5" s="11"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="14">
         <v>0</v>
       </c>
+      <c r="C6" s="12"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="14">
         <v>3</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>14</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="5" t="s">
         <v>21</v>
       </c>
+      <c r="C9" s="12" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="10" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="11" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="5" t="s">
         <v>20</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="6"/>
+      <c r="A11" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="12" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="4"/>
+    </row>
+    <row r="13" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="19"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" t="str">
+      <c r="B13" s="21"/>
+      <c r="C13" s="25" t="str">
         <f>IF(AND(メール送信方法="エラーメールを送信する",メールTo="",メールCc=""),"少なくともToかCCにメール・アドレスを入れてください。","")</f>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" s="3"/>
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="26"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="23" t="str">
+        <f>"RPAエラー_"&amp;RPAプロジェクト名</f>
+        <v>RPAエラー_サンプル名</v>
+      </c>
+      <c r="C15" s="27"/>
+    </row>
+    <row r="16" spans="1:3" ht="72" x14ac:dyDescent="0.45">
+      <c r="A16" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B16" s="23" t="s">
         <v>15</v>
       </c>
+      <c r="C16" s="28" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="16" spans="1:3" ht="162.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="4" t="s">
+    <row r="17" spans="1:3" ht="162.6" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B17" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="13" t="s">
-        <v>16</v>
-      </c>
+      <c r="C17" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
     <mergeCell ref="A4:B4"/>
   </mergeCells>
   <phoneticPr fontId="15"/>
-  <conditionalFormatting sqref="A13:B16 A6:B10">
+  <conditionalFormatting sqref="A14:B17 A6:B11">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>FIND("エラーメールを送信しない ",$B$5)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B13:B14">
+  <conditionalFormatting sqref="B14:B15">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$C$13&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5 B11" xr:uid="{92CB350F-ABE3-416A-980A-4BFD0114B6CD}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5 B12" xr:uid="{92CB350F-ABE3-416A-980A-4BFD0114B6CD}">
       <formula1>"エラーメールを送信する,エラーメールを送信しない (ポップアップウィンドウが表示されます）"</formula1>
     </dataValidation>
     <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" sqref="B6" xr:uid="{3474EF7B-DAE6-4A03-8C4D-54E4B0EBD167}">
